--- a/docentes/Vargas Olvera Francisco Eduardo Estadisticos 2020.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo Estadisticos 2020.xlsx
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -929,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -952,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
